--- a/templates/template_excel.xlsx
+++ b/templates/template_excel.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/damirs/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/damirs/PycharmProjects/WordGenerator/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CD052CA-3568-C94E-9720-A7885E7487AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1F4D33D-3CA3-CE4B-AD64-8ED0A7F1DF12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4340" yWindow="500" windowWidth="24460" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>г.Астана</t>
   </si>
@@ -62,9 +62,6 @@
     <t xml:space="preserve">date </t>
   </si>
   <si>
-    <t>enforcement district</t>
-  </si>
-  <si>
     <t>chsi_address</t>
   </si>
   <si>
@@ -120,6 +117,15 @@
   </si>
   <si>
     <t>chsi_bank</t>
+  </si>
+  <si>
+    <t>enforcement_district</t>
+  </si>
+  <si>
+    <t>chsi_name_rod_pad</t>
+  </si>
+  <si>
+    <t>ЛЕСХАНОВ ДАМИР</t>
   </si>
 </sst>
 </file>
@@ -207,7 +213,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -229,9 +235,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -256,6 +259,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -537,10 +546,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y27"/>
+  <dimension ref="A1:Z27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -548,95 +557,99 @@
     <col min="1" max="1" width="18.6640625" customWidth="1"/>
     <col min="2" max="2" width="20.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="48.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="37.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="52.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="141.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.33203125" customWidth="1"/>
+    <col min="5" max="5" width="36.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="37.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="30" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="52.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="141.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="U1" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="14">
-        <f ca="1">TODAY()</f>
-        <v>46015</v>
+    </row>
+    <row r="2" spans="1:26" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="13" t="str">
+        <f ca="1">TEXT(TODAY(),"ДД.ММ.ГГГГ")</f>
+        <v>24.12.2025</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>0</v>
@@ -645,268 +658,277 @@
         <v>1</v>
       </c>
       <c r="D2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="9">
-        <v>45737</v>
-      </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="20">
+        <v>45984</v>
+      </c>
+      <c r="H2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="11">
+      <c r="I2" s="10">
         <v>173777.25</v>
       </c>
-      <c r="I2" s="19">
-        <f>ROUND(H2*1.5/100, 0)</f>
+      <c r="J2" s="18">
+        <f>ROUND(I2*1.5/100, 0)</f>
         <v>2607</v>
       </c>
-      <c r="J2" s="11">
-        <f>H2+I2</f>
+      <c r="K2" s="10">
+        <f>I2+J2</f>
         <v>176384.25</v>
       </c>
-      <c r="K2" s="10">
+      <c r="L2" s="9">
         <v>951111351256</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="M2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="10">
+      <c r="N2" s="9">
         <v>190740017066</v>
       </c>
-      <c r="N2" s="4" t="str">
-        <f>IF(J2&lt;259500,"до 60 МРП – 25% процентов от суммы взыскания",IF(J2&lt;1297500,"от 60 до 300 МРП – 20% процентов от суммы взыскания",IF(J2&lt;4325000,"от 300 до 1 000 МРП – 15% процентов от суммы взыскания",IF(J2&lt;21625000,"от 1 000 до 5 000 МРП – 10% процентов от суммы взыскания",IF(J2&lt;43250000,"от 5 000 до 10 000 МРП – 8% процентов от суммы взыскания",IF(J2&lt;86500000,"от 10 000 до 20 000 МРП – 5% процентов от суммы взыскания","свыше 20 000 МРП – 3% процентов от суммы взыскания"))))))</f>
+      <c r="O2" s="4" t="str">
+        <f>IF(K2&lt;259500,"до 60 МРП – 25% процентов от суммы взыскания",IF(K2&lt;1297500,"от 60 до 300 МРП – 20% процентов от суммы взыскания",IF(K2&lt;4325000,"от 300 до 1 000 МРП – 15% процентов от суммы взыскания",IF(K2&lt;21625000,"от 1 000 до 5 000 МРП – 10% процентов от суммы взыскания",IF(K2&lt;43250000,"от 5 000 до 10 000 МРП – 8% процентов от суммы взыскания",IF(K2&lt;86500000,"от 10 000 до 20 000 МРП – 5% процентов от суммы взыскания","свыше 20 000 МРП – 3% процентов от суммы взыскания"))))))</f>
         <v>до 60 МРП – 25% процентов от суммы взыскания</v>
       </c>
-      <c r="O2" s="16">
-        <f>IF(J2&lt;259500,J2*25%,IF(J2&lt;1297500,J2*20%,IF(J2&lt;4325000,J2*15%,IF(J2&lt;21625000,J2*10%,IF(J2&lt;43250000,J2*8%,IF(J2&lt;86500000,J2*5%,J2*3%))))))</f>
+      <c r="P2" s="15">
+        <f>IF(K2&lt;259500,K2*25%,IF(K2&lt;1297500,K2*20%,IF(K2&lt;4325000,K2*15%,IF(K2&lt;21625000,K2*10%,IF(K2&lt;43250000,K2*8%,IF(K2&lt;86500000,K2*5%,K2*3%))))))</f>
         <v>44096.0625</v>
       </c>
-      <c r="P2" s="17">
-        <f>IF(J2&lt;259500,25%,IF(J2&lt;1297500,20%,IF(J2&lt;4325000,15%,IF(J2&lt;21625000,10%,IF(J2&lt;43250000,8%,IF(J2&lt;86500000,5%,3%))))))</f>
+      <c r="Q2" s="16">
+        <f>IF(K2&lt;259500,25%,IF(K2&lt;1297500,20%,IF(K2&lt;4325000,15%,IF(K2&lt;21625000,10%,IF(K2&lt;43250000,8%,IF(K2&lt;86500000,5%,3%))))))</f>
         <v>0.25</v>
       </c>
-      <c r="Q2" s="15">
+      <c r="R2" s="14">
         <v>700</v>
       </c>
-      <c r="R2" s="18">
-        <f>Q2+O2</f>
+      <c r="S2" s="17">
+        <f>R2+P2</f>
         <v>44796.0625</v>
       </c>
-      <c r="S2" s="18">
-        <f>R2+J2</f>
+      <c r="T2" s="17">
+        <f>S2+K2</f>
         <v>221180.3125</v>
       </c>
-      <c r="T2" s="8">
+      <c r="U2" s="8">
         <v>840520450014</v>
       </c>
-      <c r="U2" s="15" t="s">
+      <c r="V2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="V2" s="7"/>
       <c r="W2" s="7"/>
       <c r="X2" s="7"/>
       <c r="Y2" s="7"/>
-    </row>
-    <row r="3" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+      <c r="Z2" s="7"/>
+    </row>
+    <row r="3" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="12"/>
       <c r="R3" s="6"/>
       <c r="S3" s="6"/>
       <c r="T3" s="6"/>
       <c r="U3" s="6"/>
-      <c r="V3" s="7"/>
+      <c r="V3" s="6"/>
       <c r="W3" s="7"/>
       <c r="X3" s="7"/>
       <c r="Y3" s="7"/>
-    </row>
-    <row r="4" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+      <c r="Z3" s="7"/>
+    </row>
+    <row r="4" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="6"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="11"/>
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="12"/>
       <c r="R4" s="6"/>
       <c r="S4" s="6"/>
       <c r="T4" s="6"/>
       <c r="U4" s="6"/>
-      <c r="V4" s="7"/>
+      <c r="V4" s="6"/>
       <c r="W4" s="7"/>
       <c r="X4" s="7"/>
       <c r="Y4" s="7"/>
-    </row>
-    <row r="5" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+      <c r="Z4" s="7"/>
+    </row>
+    <row r="5" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="6"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="11"/>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="12"/>
       <c r="R5" s="6"/>
       <c r="S5" s="6"/>
       <c r="T5" s="6"/>
       <c r="U5" s="6"/>
-      <c r="V5" s="7"/>
+      <c r="V5" s="6"/>
       <c r="W5" s="7"/>
       <c r="X5" s="7"/>
       <c r="Y5" s="7"/>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z5" s="7"/>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="6"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="11"/>
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="12"/>
       <c r="R6" s="6"/>
       <c r="S6" s="6"/>
       <c r="T6" s="6"/>
       <c r="U6" s="6"/>
-      <c r="V6" s="7"/>
+      <c r="V6" s="6"/>
       <c r="W6" s="7"/>
       <c r="X6" s="7"/>
       <c r="Y6" s="7"/>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z6" s="7"/>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="6"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="11"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="12"/>
       <c r="R7" s="6"/>
       <c r="S7" s="6"/>
       <c r="T7" s="6"/>
       <c r="U7" s="6"/>
-      <c r="V7" s="7"/>
+      <c r="V7" s="6"/>
       <c r="W7" s="7"/>
       <c r="X7" s="7"/>
       <c r="Y7" s="7"/>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z7" s="7"/>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="6"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="11"/>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
       <c r="O8" s="6"/>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="12"/>
       <c r="R8" s="6"/>
       <c r="S8" s="6"/>
       <c r="T8" s="6"/>
       <c r="U8" s="6"/>
-      <c r="V8" s="7"/>
+      <c r="V8" s="6"/>
       <c r="W8" s="7"/>
       <c r="X8" s="7"/>
       <c r="Y8" s="7"/>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z8" s="7"/>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="6"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="11"/>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
       <c r="O9" s="6"/>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="12"/>
       <c r="R9" s="6"/>
       <c r="S9" s="6"/>
       <c r="T9" s="6"/>
       <c r="U9" s="6"/>
-      <c r="V9" s="7"/>
+      <c r="V9" s="6"/>
       <c r="W9" s="7"/>
       <c r="X9" s="7"/>
       <c r="Y9" s="7"/>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="7"/>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
+      <c r="G10" s="19"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
@@ -915,25 +937,26 @@
       <c r="M10" s="6"/>
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="12"/>
       <c r="R10" s="6"/>
       <c r="S10" s="6"/>
       <c r="T10" s="6"/>
       <c r="U10" s="6"/>
-      <c r="V10" s="7"/>
+      <c r="V10" s="6"/>
       <c r="W10" s="7"/>
       <c r="X10" s="7"/>
       <c r="Y10" s="7"/>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="7"/>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
+      <c r="G11" s="19"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
@@ -942,25 +965,26 @@
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="12"/>
       <c r="R11" s="6"/>
       <c r="S11" s="6"/>
       <c r="T11" s="6"/>
       <c r="U11" s="6"/>
-      <c r="V11" s="7"/>
+      <c r="V11" s="6"/>
       <c r="W11" s="7"/>
       <c r="X11" s="7"/>
       <c r="Y11" s="7"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="7"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
+      <c r="G12" s="19"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
@@ -969,25 +993,26 @@
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
       <c r="O12" s="6"/>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="12"/>
       <c r="R12" s="6"/>
       <c r="S12" s="6"/>
       <c r="T12" s="6"/>
       <c r="U12" s="6"/>
-      <c r="V12" s="7"/>
+      <c r="V12" s="6"/>
       <c r="W12" s="7"/>
       <c r="X12" s="7"/>
       <c r="Y12" s="7"/>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="7"/>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
+      <c r="G13" s="19"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
@@ -996,25 +1021,26 @@
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
       <c r="O13" s="6"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="12"/>
       <c r="R13" s="6"/>
       <c r="S13" s="6"/>
       <c r="T13" s="6"/>
       <c r="U13" s="6"/>
-      <c r="V13" s="7"/>
+      <c r="V13" s="6"/>
       <c r="W13" s="7"/>
       <c r="X13" s="7"/>
       <c r="Y13" s="7"/>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="7"/>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
+      <c r="G14" s="19"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
@@ -1023,25 +1049,26 @@
       <c r="M14" s="6"/>
       <c r="N14" s="6"/>
       <c r="O14" s="6"/>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="12"/>
       <c r="R14" s="6"/>
       <c r="S14" s="6"/>
       <c r="T14" s="6"/>
       <c r="U14" s="6"/>
-      <c r="V14" s="7"/>
+      <c r="V14" s="6"/>
       <c r="W14" s="7"/>
       <c r="X14" s="7"/>
       <c r="Y14" s="7"/>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="7"/>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
+      <c r="G15" s="19"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
@@ -1050,25 +1077,26 @@
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
       <c r="O15" s="6"/>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="12"/>
       <c r="R15" s="6"/>
       <c r="S15" s="6"/>
       <c r="T15" s="6"/>
       <c r="U15" s="6"/>
-      <c r="V15" s="7"/>
+      <c r="V15" s="6"/>
       <c r="W15" s="7"/>
       <c r="X15" s="7"/>
       <c r="Y15" s="7"/>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="7"/>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
+      <c r="G16" s="19"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
@@ -1077,25 +1105,26 @@
       <c r="M16" s="6"/>
       <c r="N16" s="6"/>
       <c r="O16" s="6"/>
-      <c r="P16" s="13"/>
-      <c r="Q16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="12"/>
       <c r="R16" s="6"/>
       <c r="S16" s="6"/>
       <c r="T16" s="6"/>
       <c r="U16" s="6"/>
-      <c r="V16" s="7"/>
+      <c r="V16" s="6"/>
       <c r="W16" s="7"/>
       <c r="X16" s="7"/>
       <c r="Y16" s="7"/>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="7"/>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
+      <c r="G17" s="19"/>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
@@ -1104,25 +1133,26 @@
       <c r="M17" s="6"/>
       <c r="N17" s="6"/>
       <c r="O17" s="6"/>
-      <c r="P17" s="13"/>
-      <c r="Q17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="12"/>
       <c r="R17" s="6"/>
       <c r="S17" s="6"/>
       <c r="T17" s="6"/>
       <c r="U17" s="6"/>
-      <c r="V17" s="7"/>
+      <c r="V17" s="6"/>
       <c r="W17" s="7"/>
       <c r="X17" s="7"/>
       <c r="Y17" s="7"/>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z17" s="7"/>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
+      <c r="G18" s="19"/>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
@@ -1131,25 +1161,26 @@
       <c r="M18" s="6"/>
       <c r="N18" s="6"/>
       <c r="O18" s="6"/>
-      <c r="P18" s="13"/>
-      <c r="Q18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="12"/>
       <c r="R18" s="6"/>
       <c r="S18" s="6"/>
       <c r="T18" s="6"/>
       <c r="U18" s="6"/>
-      <c r="V18" s="7"/>
+      <c r="V18" s="6"/>
       <c r="W18" s="7"/>
       <c r="X18" s="7"/>
       <c r="Y18" s="7"/>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z18" s="7"/>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
+      <c r="G19" s="19"/>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
@@ -1158,25 +1189,26 @@
       <c r="M19" s="6"/>
       <c r="N19" s="6"/>
       <c r="O19" s="6"/>
-      <c r="P19" s="13"/>
-      <c r="Q19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="12"/>
       <c r="R19" s="6"/>
       <c r="S19" s="6"/>
       <c r="T19" s="6"/>
       <c r="U19" s="6"/>
-      <c r="V19" s="7"/>
+      <c r="V19" s="6"/>
       <c r="W19" s="7"/>
       <c r="X19" s="7"/>
       <c r="Y19" s="7"/>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="7"/>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
+      <c r="G20" s="19"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
@@ -1185,25 +1217,26 @@
       <c r="M20" s="6"/>
       <c r="N20" s="6"/>
       <c r="O20" s="6"/>
-      <c r="P20" s="13"/>
-      <c r="Q20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="12"/>
       <c r="R20" s="6"/>
       <c r="S20" s="6"/>
       <c r="T20" s="6"/>
       <c r="U20" s="6"/>
-      <c r="V20" s="7"/>
+      <c r="V20" s="6"/>
       <c r="W20" s="7"/>
       <c r="X20" s="7"/>
       <c r="Y20" s="7"/>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="7"/>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
+      <c r="G21" s="19"/>
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
@@ -1212,25 +1245,26 @@
       <c r="M21" s="6"/>
       <c r="N21" s="6"/>
       <c r="O21" s="6"/>
-      <c r="P21" s="13"/>
-      <c r="Q21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="12"/>
       <c r="R21" s="6"/>
       <c r="S21" s="6"/>
       <c r="T21" s="6"/>
       <c r="U21" s="6"/>
-      <c r="V21" s="7"/>
+      <c r="V21" s="6"/>
       <c r="W21" s="7"/>
       <c r="X21" s="7"/>
       <c r="Y21" s="7"/>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z21" s="7"/>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
+      <c r="G22" s="19"/>
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
@@ -1245,12 +1279,13 @@
       <c r="S22" s="6"/>
       <c r="T22" s="6"/>
       <c r="U22" s="6"/>
-      <c r="V22" s="7"/>
+      <c r="V22" s="6"/>
       <c r="W22" s="7"/>
       <c r="X22" s="7"/>
       <c r="Y22" s="7"/>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="7"/>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -1276,8 +1311,9 @@
       <c r="W23" s="7"/>
       <c r="X23" s="7"/>
       <c r="Y23" s="7"/>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z23" s="7"/>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -1303,8 +1339,9 @@
       <c r="W24" s="7"/>
       <c r="X24" s="7"/>
       <c r="Y24" s="7"/>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="7"/>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -1330,8 +1367,9 @@
       <c r="W25" s="7"/>
       <c r="X25" s="7"/>
       <c r="Y25" s="7"/>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="7"/>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -1357,8 +1395,9 @@
       <c r="W26" s="7"/>
       <c r="X26" s="7"/>
       <c r="Y26" s="7"/>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z26" s="7"/>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -1384,6 +1423,7 @@
       <c r="W27" s="7"/>
       <c r="X27" s="7"/>
       <c r="Y27" s="7"/>
+      <c r="Z27" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/templates/template_excel.xlsx
+++ b/templates/template_excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/damirs/PycharmProjects/WordGenerator/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1F4D33D-3CA3-CE4B-AD64-8ED0A7F1DF12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43286966-CBF0-284B-9AAD-6A6ED1F1A13C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4340" yWindow="500" windowWidth="24460" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="160" yWindow="660" windowWidth="28480" windowHeight="17200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>г.Астана</t>
   </si>
@@ -126,6 +126,69 @@
   </si>
   <si>
     <t>ЛЕСХАНОВ ДАМИР</t>
+  </si>
+  <si>
+    <t>дата вынесения постановления</t>
+  </si>
+  <si>
+    <t>исполнительный округ частного судебного исполнителя</t>
+  </si>
+  <si>
+    <t>адрес частного судебного исполнителя</t>
+  </si>
+  <si>
+    <t>ФИО частного судебного исполнителя</t>
+  </si>
+  <si>
+    <t>номер исполнительного производства</t>
+  </si>
+  <si>
+    <t>дата начала исполнительного производства</t>
+  </si>
+  <si>
+    <t>ФИО должника</t>
+  </si>
+  <si>
+    <t>сумма основного долга</t>
+  </si>
+  <si>
+    <t>размер государственной пошлины</t>
+  </si>
+  <si>
+    <t>ИИН должника</t>
+  </si>
+  <si>
+    <t>наименование работодателя</t>
+  </si>
+  <si>
+    <t>БИН работодателя</t>
+  </si>
+  <si>
+    <t>размер месячного расчетного показателя или расчет на его основе</t>
+  </si>
+  <si>
+    <t>сумма оплаты деятельности ЧСИ</t>
+  </si>
+  <si>
+    <t>процент от суммы долга для оплаты деятельности ЧСИ</t>
+  </si>
+  <si>
+    <t>сумма расходов по исполнительному производству</t>
+  </si>
+  <si>
+    <t>общая сумма в пользу ЧСИ (оплата деятельности + расходы).</t>
+  </si>
+  <si>
+    <t>ФИО частного судебного исполнителя в родительном падеже</t>
+  </si>
+  <si>
+    <t>общая сумма, на которую обращается взыскание</t>
+  </si>
+  <si>
+    <t>ИИН частного судебного исполнителя</t>
+  </si>
+  <si>
+    <t>филиал банка ЧСИ, где открыт счет</t>
   </si>
 </sst>
 </file>
@@ -213,7 +276,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -259,11 +322,14 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -546,10 +612,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z27"/>
+  <dimension ref="A1:Z28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -578,176 +644,214 @@
     <col min="22" max="22" width="141.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:26" s="20" customFormat="1" ht="112" x14ac:dyDescent="0.2">
+      <c r="A1" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="L1" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="N1" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="O1" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="P1" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q1" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="R1" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="S1" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="T1" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="U1" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="V1" s="20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="U2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="V2" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="13" t="str">
+    <row r="3" spans="1:26" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="13" t="str">
         <f ca="1">TEXT(TODAY(),"ДД.ММ.ГГГГ")</f>
-        <v>24.12.2025</v>
-      </c>
-      <c r="B2" s="5" t="s">
+        <v>25.12.2025</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D3" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="20">
+      <c r="G3" s="19">
         <v>45984</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="H3" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="10">
+      <c r="I3" s="10">
         <v>173777.25</v>
       </c>
-      <c r="J2" s="18">
-        <f>ROUND(I2*1.5/100, 0)</f>
+      <c r="J3" s="18">
+        <f>ROUND(I3*1.5/100, 0)</f>
         <v>2607</v>
       </c>
-      <c r="K2" s="10">
-        <f>I2+J2</f>
+      <c r="K3" s="10">
+        <f>I3+J3</f>
         <v>176384.25</v>
       </c>
-      <c r="L2" s="9">
+      <c r="L3" s="9">
         <v>951111351256</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="9">
+      <c r="N3" s="9">
         <v>190740017066</v>
       </c>
-      <c r="O2" s="4" t="str">
-        <f>IF(K2&lt;259500,"до 60 МРП – 25% процентов от суммы взыскания",IF(K2&lt;1297500,"от 60 до 300 МРП – 20% процентов от суммы взыскания",IF(K2&lt;4325000,"от 300 до 1 000 МРП – 15% процентов от суммы взыскания",IF(K2&lt;21625000,"от 1 000 до 5 000 МРП – 10% процентов от суммы взыскания",IF(K2&lt;43250000,"от 5 000 до 10 000 МРП – 8% процентов от суммы взыскания",IF(K2&lt;86500000,"от 10 000 до 20 000 МРП – 5% процентов от суммы взыскания","свыше 20 000 МРП – 3% процентов от суммы взыскания"))))))</f>
+      <c r="O3" s="4" t="str">
+        <f>IF(K3&lt;259500,"до 60 МРП – 25% процентов от суммы взыскания",IF(K3&lt;1297500,"от 60 до 300 МРП – 20% процентов от суммы взыскания",IF(K3&lt;4325000,"от 300 до 1 000 МРП – 15% процентов от суммы взыскания",IF(K3&lt;21625000,"от 1 000 до 5 000 МРП – 10% процентов от суммы взыскания",IF(K3&lt;43250000,"от 5 000 до 10 000 МРП – 8% процентов от суммы взыскания",IF(K3&lt;86500000,"от 10 000 до 20 000 МРП – 5% процентов от суммы взыскания","свыше 20 000 МРП – 3% процентов от суммы взыскания"))))))</f>
         <v>до 60 МРП – 25% процентов от суммы взыскания</v>
       </c>
-      <c r="P2" s="15">
-        <f>IF(K2&lt;259500,K2*25%,IF(K2&lt;1297500,K2*20%,IF(K2&lt;4325000,K2*15%,IF(K2&lt;21625000,K2*10%,IF(K2&lt;43250000,K2*8%,IF(K2&lt;86500000,K2*5%,K2*3%))))))</f>
+      <c r="P3" s="15">
+        <f>IF(K3&lt;259500,K3*25%,IF(K3&lt;1297500,K3*20%,IF(K3&lt;4325000,K3*15%,IF(K3&lt;21625000,K3*10%,IF(K3&lt;43250000,K3*8%,IF(K3&lt;86500000,K3*5%,K3*3%))))))</f>
         <v>44096.0625</v>
       </c>
-      <c r="Q2" s="16">
-        <f>IF(K2&lt;259500,25%,IF(K2&lt;1297500,20%,IF(K2&lt;4325000,15%,IF(K2&lt;21625000,10%,IF(K2&lt;43250000,8%,IF(K2&lt;86500000,5%,3%))))))</f>
+      <c r="Q3" s="16">
+        <f>IF(K3&lt;259500,25%,IF(K3&lt;1297500,20%,IF(K3&lt;4325000,15%,IF(K3&lt;21625000,10%,IF(K3&lt;43250000,8%,IF(K3&lt;86500000,5%,3%))))))</f>
         <v>0.25</v>
       </c>
-      <c r="R2" s="14">
+      <c r="R3" s="14">
         <v>700</v>
       </c>
-      <c r="S2" s="17">
-        <f>R2+P2</f>
+      <c r="S3" s="17">
+        <f>R3+P3</f>
         <v>44796.0625</v>
       </c>
-      <c r="T2" s="17">
-        <f>S2+K2</f>
+      <c r="T3" s="17">
+        <f>S3+K3</f>
         <v>221180.3125</v>
       </c>
-      <c r="U2" s="8">
+      <c r="U3" s="8">
         <v>840520450014</v>
       </c>
-      <c r="V2" s="14" t="s">
+      <c r="V3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="W2" s="7"/>
-      <c r="X2" s="7"/>
-      <c r="Y2" s="7"/>
-      <c r="Z2" s="7"/>
-    </row>
-    <row r="3" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6"/>
-      <c r="V3" s="6"/>
       <c r="W3" s="7"/>
       <c r="X3" s="7"/>
       <c r="Y3" s="7"/>
@@ -760,10 +864,9 @@
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
-      <c r="G4" s="19"/>
       <c r="H4" s="6"/>
       <c r="I4" s="11"/>
-      <c r="J4" s="6"/>
+      <c r="J4" s="11"/>
       <c r="K4" s="11"/>
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
@@ -788,7 +891,7 @@
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
-      <c r="G5" s="19"/>
+      <c r="G5" s="6"/>
       <c r="H5" s="6"/>
       <c r="I5" s="11"/>
       <c r="J5" s="6"/>
@@ -797,7 +900,7 @@
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
       <c r="O5" s="4"/>
-      <c r="P5" s="6"/>
+      <c r="P5" s="11"/>
       <c r="Q5" s="12"/>
       <c r="R5" s="6"/>
       <c r="S5" s="6"/>
@@ -809,14 +912,14 @@
       <c r="Y5" s="7"/>
       <c r="Z5" s="7"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
-      <c r="G6" s="19"/>
+      <c r="G6" s="6"/>
       <c r="H6" s="6"/>
       <c r="I6" s="11"/>
       <c r="J6" s="6"/>
@@ -824,7 +927,7 @@
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
       <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
+      <c r="O6" s="4"/>
       <c r="P6" s="6"/>
       <c r="Q6" s="12"/>
       <c r="R6" s="6"/>
@@ -844,7 +947,7 @@
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
-      <c r="G7" s="19"/>
+      <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="11"/>
       <c r="J7" s="6"/>
@@ -872,7 +975,7 @@
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
-      <c r="G8" s="19"/>
+      <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="11"/>
       <c r="J8" s="6"/>
@@ -900,7 +1003,7 @@
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
-      <c r="G9" s="19"/>
+      <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="I9" s="11"/>
       <c r="J9" s="6"/>
@@ -928,11 +1031,11 @@
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
-      <c r="G10" s="19"/>
+      <c r="G10" s="6"/>
       <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
+      <c r="I10" s="11"/>
       <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
+      <c r="K10" s="11"/>
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
       <c r="N10" s="6"/>
@@ -956,7 +1059,7 @@
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
-      <c r="G11" s="19"/>
+      <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
@@ -984,7 +1087,7 @@
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
-      <c r="G12" s="19"/>
+      <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
@@ -1012,7 +1115,7 @@
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
-      <c r="G13" s="19"/>
+      <c r="G13" s="6"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
@@ -1040,7 +1143,7 @@
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
-      <c r="G14" s="19"/>
+      <c r="G14" s="6"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
@@ -1068,7 +1171,7 @@
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
-      <c r="G15" s="19"/>
+      <c r="G15" s="6"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
@@ -1096,7 +1199,7 @@
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
-      <c r="G16" s="19"/>
+      <c r="G16" s="6"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
@@ -1124,7 +1227,7 @@
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
-      <c r="G17" s="19"/>
+      <c r="G17" s="6"/>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
@@ -1152,7 +1255,7 @@
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
-      <c r="G18" s="19"/>
+      <c r="G18" s="6"/>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
@@ -1180,7 +1283,7 @@
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
-      <c r="G19" s="19"/>
+      <c r="G19" s="6"/>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
@@ -1208,7 +1311,7 @@
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
-      <c r="G20" s="19"/>
+      <c r="G20" s="6"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
@@ -1236,7 +1339,7 @@
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
-      <c r="G21" s="19"/>
+      <c r="G21" s="6"/>
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
@@ -1264,7 +1367,7 @@
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
-      <c r="G22" s="19"/>
+      <c r="G22" s="6"/>
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
@@ -1274,7 +1377,7 @@
       <c r="N22" s="6"/>
       <c r="O22" s="6"/>
       <c r="P22" s="6"/>
-      <c r="Q22" s="6"/>
+      <c r="Q22" s="12"/>
       <c r="R22" s="6"/>
       <c r="S22" s="6"/>
       <c r="T22" s="6"/>
@@ -1286,28 +1389,28 @@
       <c r="Z22" s="7"/>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
-      <c r="N23" s="7"/>
-      <c r="O23" s="7"/>
-      <c r="P23" s="7"/>
-      <c r="Q23" s="7"/>
-      <c r="R23" s="7"/>
-      <c r="S23" s="7"/>
-      <c r="T23" s="7"/>
-      <c r="U23" s="7"/>
-      <c r="V23" s="7"/>
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6"/>
+      <c r="S23" s="6"/>
+      <c r="T23" s="6"/>
+      <c r="U23" s="6"/>
+      <c r="V23" s="6"/>
       <c r="W23" s="7"/>
       <c r="X23" s="7"/>
       <c r="Y23" s="7"/>
@@ -1425,6 +1528,34 @@
       <c r="Y27" s="7"/>
       <c r="Z27" s="7"/>
     </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="7"/>
+      <c r="P28" s="7"/>
+      <c r="Q28" s="7"/>
+      <c r="R28" s="7"/>
+      <c r="S28" s="7"/>
+      <c r="T28" s="7"/>
+      <c r="U28" s="7"/>
+      <c r="V28" s="7"/>
+      <c r="W28" s="7"/>
+      <c r="X28" s="7"/>
+      <c r="Y28" s="7"/>
+      <c r="Z28" s="7"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/templates/template_excel.xlsx
+++ b/templates/template_excel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11214"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/damirs/PycharmProjects/WordGenerator/templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leskhand\testProjects\WordGenerator\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43286966-CBF0-284B-9AAD-6A6ED1F1A13C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D50C77B-E12C-4F72-A04B-AE1324C3924F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="660" windowWidth="28480" windowHeight="17200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>г.Астана</t>
   </si>
@@ -189,6 +189,9 @@
   </si>
   <si>
     <t>филиал банка ЧСИ, где открыт счет</t>
+  </si>
+  <si>
+    <t>23.11.2025</t>
   </si>
 </sst>
 </file>
@@ -322,14 +325,14 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -614,102 +617,102 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.6640625" customWidth="1"/>
-    <col min="2" max="2" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="48.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="48.33203125" customWidth="1"/>
     <col min="5" max="5" width="36.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="37.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="37.44140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="30" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="52.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="52.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.44140625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="141.5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="141.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="20" customFormat="1" ht="112" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:26" s="19" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="J1" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="L1" s="20" t="s">
+      <c r="L1" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="M1" s="20" t="s">
+      <c r="M1" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="N1" s="20" t="s">
+      <c r="N1" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="O1" s="20" t="s">
+      <c r="O1" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="P1" s="20" t="s">
+      <c r="P1" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="Q1" s="20" t="s">
+      <c r="Q1" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="R1" s="20" t="s">
+      <c r="R1" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="S1" s="20" t="s">
+      <c r="S1" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="T1" s="20" t="s">
+      <c r="T1" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="U1" s="20" t="s">
+      <c r="U1" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="V1" s="20" t="s">
+      <c r="V1" s="19" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:26" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -777,7 +780,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="str">
         <f ca="1">TEXT(TODAY(),"ДД.ММ.ГГГГ")</f>
         <v>25.12.2025</v>
@@ -797,8 +800,8 @@
       <c r="F3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="19">
-        <v>45984</v>
+      <c r="G3" s="21" t="s">
+        <v>51</v>
       </c>
       <c r="H3" s="14" t="s">
         <v>4</v>
@@ -857,7 +860,7 @@
       <c r="Y3" s="7"/>
       <c r="Z3" s="7"/>
     </row>
-    <row r="4" spans="1:26" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -884,7 +887,7 @@
       <c r="Y4" s="7"/>
       <c r="Z4" s="7"/>
     </row>
-    <row r="5" spans="1:26" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -912,7 +915,7 @@
       <c r="Y5" s="7"/>
       <c r="Z5" s="7"/>
     </row>
-    <row r="6" spans="1:26" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -940,7 +943,7 @@
       <c r="Y6" s="7"/>
       <c r="Z6" s="7"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -968,7 +971,7 @@
       <c r="Y7" s="7"/>
       <c r="Z7" s="7"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -996,7 +999,7 @@
       <c r="Y8" s="7"/>
       <c r="Z8" s="7"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -1024,7 +1027,7 @@
       <c r="Y9" s="7"/>
       <c r="Z9" s="7"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -1052,7 +1055,7 @@
       <c r="Y10" s="7"/>
       <c r="Z10" s="7"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -1080,7 +1083,7 @@
       <c r="Y11" s="7"/>
       <c r="Z11" s="7"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -1108,7 +1111,7 @@
       <c r="Y12" s="7"/>
       <c r="Z12" s="7"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -1136,7 +1139,7 @@
       <c r="Y13" s="7"/>
       <c r="Z13" s="7"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -1164,7 +1167,7 @@
       <c r="Y14" s="7"/>
       <c r="Z14" s="7"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -1192,7 +1195,7 @@
       <c r="Y15" s="7"/>
       <c r="Z15" s="7"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -1220,7 +1223,7 @@
       <c r="Y16" s="7"/>
       <c r="Z16" s="7"/>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -1248,7 +1251,7 @@
       <c r="Y17" s="7"/>
       <c r="Z17" s="7"/>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -1276,7 +1279,7 @@
       <c r="Y18" s="7"/>
       <c r="Z18" s="7"/>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -1304,7 +1307,7 @@
       <c r="Y19" s="7"/>
       <c r="Z19" s="7"/>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
@@ -1332,7 +1335,7 @@
       <c r="Y20" s="7"/>
       <c r="Z20" s="7"/>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -1360,7 +1363,7 @@
       <c r="Y21" s="7"/>
       <c r="Z21" s="7"/>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
@@ -1388,7 +1391,7 @@
       <c r="Y22" s="7"/>
       <c r="Z22" s="7"/>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
@@ -1416,7 +1419,7 @@
       <c r="Y23" s="7"/>
       <c r="Z23" s="7"/>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -1444,7 +1447,7 @@
       <c r="Y24" s="7"/>
       <c r="Z24" s="7"/>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -1472,7 +1475,7 @@
       <c r="Y25" s="7"/>
       <c r="Z25" s="7"/>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -1500,7 +1503,7 @@
       <c r="Y26" s="7"/>
       <c r="Z26" s="7"/>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -1528,7 +1531,7 @@
       <c r="Y27" s="7"/>
       <c r="Z27" s="7"/>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A28" s="7"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
